--- a/data/trans_dic/P16B97-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Estudios-trans_dic.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>97,48; 100,0</t>
+          <t>97,62; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,56; 100,0</t>
+          <t>92,92; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,45; 99,1</t>
+          <t>91,93; 99,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,64; 100,0</t>
+          <t>95,6; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,51; 100,0</t>
+          <t>98,87; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,07; 99,46</t>
+          <t>95,23; 99,52</t>
         </is>
       </c>
     </row>
@@ -800,42 +800,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,62; 100,0</t>
+          <t>96,24; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,93; 100,0</t>
+          <t>93,91; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,15; 100,0</t>
+          <t>89,21; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,96; 99,49</t>
+          <t>95,34; 99,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>94,54; 100,0</t>
+          <t>95,11; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,55; 100,0</t>
+          <t>92,26; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,62; 99,68</t>
+          <t>96,92; 99,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,87; 99,63</t>
+          <t>96,1; 99,47</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,22; 100,0</t>
+          <t>73,25; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,15; 100,0</t>
+          <t>84,51; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,35; 100,0</t>
+          <t>98,21; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,16; 100,0</t>
+          <t>96,73; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,21; 100,0</t>
+          <t>95,09; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,2; 99,62</t>
+          <t>97,25; 99,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,27</t>
+          <t>95,57; 99,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>96,9; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,95; 99,61</t>
+          <t>97,93; 99,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,95; 99,27</t>
+          <t>96,86; 99,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B97-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B97-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,92; 100,0</t>
+          <t>92,98; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,93; 99,16</t>
+          <t>92,16; 99,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,6; 100,0</t>
+          <t>95,62; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,87; 100,0</t>
+          <t>98,94; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,52</t>
+          <t>95,35; 99,44</t>
         </is>
       </c>
     </row>
@@ -800,42 +800,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,24; 100,0</t>
+          <t>96,16; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,91; 100,0</t>
+          <t>93,9; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,21; 100,0</t>
+          <t>87,27; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,34; 99,49</t>
+          <t>95,58; 99,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,11; 100,0</t>
+          <t>95,04; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,26; 100,0</t>
+          <t>92,99; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,92; 99,69</t>
+          <t>96,62; 99,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,1; 99,47</t>
+          <t>96,09; 99,62</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,25; 100,0</t>
+          <t>74,84; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,51; 100,0</t>
+          <t>82,35; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1020,27 +1020,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,21; 100,0</t>
+          <t>98,3; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,73; 100,0</t>
+          <t>97,07; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,09; 100,0</t>
+          <t>94,73; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,25; 99,62</t>
+          <t>97,1; 99,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,57; 99,28</t>
+          <t>95,89; 99,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,93; 99,59</t>
+          <t>97,73; 99,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,86; 99,23</t>
+          <t>96,95; 99,24</t>
         </is>
       </c>
     </row>
